--- a/medicine/Psychotrope/Groupe_Radeberger/Groupe_Radeberger.xlsx
+++ b/medicine/Psychotrope/Groupe_Radeberger/Groupe_Radeberger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le groupe Radeberger (Radeberger Gruppe en allemand) est la première entreprise brassicole d'Allemagne, propriétaire de 16 brasseries et d'un portefeuille de plusieurs dizaines de marques de bières et de boissons sans alcool. Son siège social est situé à Francfort-sur-le-Main. Elle fait partie du holding Dr. Oetker depuis sa création en 1952.
@@ -513,12 +525,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Par l'acquisition de la majorité des actions de la brasserie Binding en 1952, le groupe Dr. August Oetker investit dans ce nouveau secteur d'activité. Le Groupe Binding sera renommé le groupe Radeberger en juillet 2002.
-Le groupe rachète ensuite de nombreuses marques de bière comme Radeberger Pilsner, Jever, Freiberger, Allgäuer Brauhaus, Schöfferhofer Weizen, Selters ou Tucher. Il indiquait en 2016 un chiffre d'affaires de 2 milliards d'euros et employait 5 850 ouvriers, ce qui représente une recette fiscale d'environ 100 millions d'euros. D'après ses propres données, le groupe Radeberger produit annuellement 13 millions d'hectolitres de bière et représente 15% de part de marché en Allemagne[2].
-En 2014, l'office fédéral de lutte contre les cartels a condamné le groupe Radeberger pour entente illicite sur les prix de la bière avec plusieurs autres brasseries. Le groupe a été sanctionné par une amende de 231,5 millions d'euros[3].
-Fin 2017, le groupe vend la marque Bionade au fabricant de boissons Hassia Mineralquellen basé à Bad Vilbel[4].
+Le groupe rachète ensuite de nombreuses marques de bière comme Radeberger Pilsner, Jever, Freiberger, Allgäuer Brauhaus, Schöfferhofer Weizen, Selters ou Tucher. Il indiquait en 2016 un chiffre d'affaires de 2 milliards d'euros et employait 5 850 ouvriers, ce qui représente une recette fiscale d'environ 100 millions d'euros. D'après ses propres données, le groupe Radeberger produit annuellement 13 millions d'hectolitres de bière et représente 15% de part de marché en Allemagne.
+En 2014, l'office fédéral de lutte contre les cartels a condamné le groupe Radeberger pour entente illicite sur les prix de la bière avec plusieurs autres brasseries. Le groupe a été sanctionné par une amende de 231,5 millions d'euros.
+Fin 2017, le groupe vend la marque Bionade au fabricant de boissons Hassia Mineralquellen basé à Bad Vilbel.
 </t>
         </is>
       </c>
@@ -549,8 +563,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Brasseries
-Allgäuer Brauhaus AG, siège et ancienne brasserie à Kempten (Allgäu), brasserie à Marktoberdorf.
+          <t>Brasseries</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Allgäuer Brauhaus AG, siège et ancienne brasserie à Kempten (Allgäu), brasserie à Marktoberdorf.
 marques : Allgäuer, Altenmünster, Büble, Oberdorfer, Teutsch Pils, Fürstabt, Norbertus
 Berliner-Kindl-Schultheiss-Brauerei, Berlin
 marques : Berliner Kindl, Schultheiss, Berliner Pilsner, Potsdamer Rex, Berliner Bürgerbräu, Märkischer Landmann, Prater
@@ -565,16 +584,50 @@
 Hanseatische Brauerei Rostock, Rostock
 marques : Rostocker, Mahn &amp; Ohlerich
 Haus Kölscher Brautradition, Cologne
-marques : Gilden Kölsch, Küppers Kölsch, Sester Kölsch, Sion Kölsch, Peters Kölsch, Dom Kölsch[5]
+marques : Gilden Kölsch, Küppers Kölsch, Sester Kölsch, Sion Kölsch, Peters Kölsch, Dom Kölsch
 Krostitzer Brauerei, Krostitz
 Sternburg-Brauerei, Leipzig
 Radeberger Exportbierbrauerei GmbH, Radeberg
 Stuttgarter Hofbräu AG &amp; Co. KG, Stuttgart
 marques : Stuttgarter Hofbräu, Malteser Weissbier
 Tucher Bräu GmbH &amp; Co. KG, Nuremberg/Fürth
-marques : Tucher, Lederer Bräu, Zirndorfer, Grüner, Humbser, Patrizier, Kloster Scheyern
-Boissons non-alcoolisées
-Selters
+marques : Tucher, Lederer Bräu, Zirndorfer, Grüner, Humbser, Patrizier, Kloster Scheyern</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Groupe_Radeberger</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Groupe_Radeberger</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Filiales</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Boissons non-alcoolisées</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selters
 Bionade</t>
         </is>
       </c>
